--- a/datas.xlsx
+++ b/datas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@Sam\Programing\SpringBoot\ReadingDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674C6A41-724B-4975-8A2A-94C0C464029E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B14E17-6162-4164-BCDC-65862DCB71F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{7D0EBAF6-368F-4176-ABFF-1875228A9116}"/>
   </bookViews>
@@ -159,357 +159,6 @@
     <t>Communes</t>
   </si>
   <si>
-    <t>Cinkassé 1</t>
-  </si>
-  <si>
-    <t>Cinkassé 2</t>
-  </si>
-  <si>
-    <t>Tône 1</t>
-  </si>
-  <si>
-    <t>Tône 2</t>
-  </si>
-  <si>
-    <t>Tône 3</t>
-  </si>
-  <si>
-    <t>Tône 4</t>
-  </si>
-  <si>
-    <t>Kpendjal 1</t>
-  </si>
-  <si>
-    <t>Kpendjal 2</t>
-  </si>
-  <si>
-    <t>Kpendjal Ouest 1</t>
-  </si>
-  <si>
-    <t>Kpendjal Ouest 2</t>
-  </si>
-  <si>
-    <t>Oti 1</t>
-  </si>
-  <si>
-    <t>Oti 2</t>
-  </si>
-  <si>
-    <t>Oti Sud 1</t>
-  </si>
-  <si>
-    <t>Oti Sud 2</t>
-  </si>
-  <si>
-    <t>Tandjouare 1</t>
-  </si>
-  <si>
-    <t>Tandjouare 2</t>
-  </si>
-  <si>
-    <t>Kéran 1</t>
-  </si>
-  <si>
-    <t>Kéran 2</t>
-  </si>
-  <si>
-    <t>Kéran 3</t>
-  </si>
-  <si>
-    <t>Bassar 1</t>
-  </si>
-  <si>
-    <t>Bassar 2</t>
-  </si>
-  <si>
-    <t>Bassar 3</t>
-  </si>
-  <si>
-    <t>Bassar 4</t>
-  </si>
-  <si>
-    <t>Dankpen 1</t>
-  </si>
-  <si>
-    <t>Dankpen 2</t>
-  </si>
-  <si>
-    <t>Dankpen 3</t>
-  </si>
-  <si>
-    <t>Kozah 1</t>
-  </si>
-  <si>
-    <t>Kozah 2</t>
-  </si>
-  <si>
-    <t>Kozah 3</t>
-  </si>
-  <si>
-    <t>Kozah 4</t>
-  </si>
-  <si>
-    <t>Binah 1</t>
-  </si>
-  <si>
-    <t>Binah 2</t>
-  </si>
-  <si>
-    <t>Doufelgou 1</t>
-  </si>
-  <si>
-    <t>Doufelgou 2</t>
-  </si>
-  <si>
-    <t>Doufelgou 3</t>
-  </si>
-  <si>
-    <t>Assoli 1</t>
-  </si>
-  <si>
-    <t>Assoli 2</t>
-  </si>
-  <si>
-    <t>Assoli 3</t>
-  </si>
-  <si>
-    <t>Tchaoudjo 1</t>
-  </si>
-  <si>
-    <t>Tchaoudjo 2</t>
-  </si>
-  <si>
-    <t>Tchaoudjo 3</t>
-  </si>
-  <si>
-    <t>Tchaoudjo 4</t>
-  </si>
-  <si>
-    <t>Sotouboua 1</t>
-  </si>
-  <si>
-    <t>Sotouboua 2</t>
-  </si>
-  <si>
-    <t>Sotouboua 3</t>
-  </si>
-  <si>
-    <t>Mô 1</t>
-  </si>
-  <si>
-    <t>Mô 2</t>
-  </si>
-  <si>
-    <t>Tchamba 1</t>
-  </si>
-  <si>
-    <t>Tchamba 2</t>
-  </si>
-  <si>
-    <t>Tchamba 3</t>
-  </si>
-  <si>
-    <t>Blitta 1</t>
-  </si>
-  <si>
-    <t>Blitta 2</t>
-  </si>
-  <si>
-    <t>Blitta 3</t>
-  </si>
-  <si>
-    <t>Anié 1</t>
-  </si>
-  <si>
-    <t>Anié 2</t>
-  </si>
-  <si>
-    <t>Est-Mono 1</t>
-  </si>
-  <si>
-    <t>Est-Mono 2</t>
-  </si>
-  <si>
-    <t>Est-Mono 3</t>
-  </si>
-  <si>
-    <t>Moyen-Mono 1</t>
-  </si>
-  <si>
-    <t>Moyen-Mono 2</t>
-  </si>
-  <si>
-    <t>Agou 1</t>
-  </si>
-  <si>
-    <t>Agou 2</t>
-  </si>
-  <si>
-    <t>Danyi 1</t>
-  </si>
-  <si>
-    <t>Danyi 2</t>
-  </si>
-  <si>
-    <t>Akébou 1</t>
-  </si>
-  <si>
-    <t>Akébou 2</t>
-  </si>
-  <si>
-    <t>Kpélé 1</t>
-  </si>
-  <si>
-    <t>Kpélé 2</t>
-  </si>
-  <si>
-    <t>Kloto 1</t>
-  </si>
-  <si>
-    <t>Kloto 2</t>
-  </si>
-  <si>
-    <t>Kloto 3</t>
-  </si>
-  <si>
-    <t>Ogou 1</t>
-  </si>
-  <si>
-    <t>Ogou 2</t>
-  </si>
-  <si>
-    <t>Ogou 3</t>
-  </si>
-  <si>
-    <t>Ogou 4</t>
-  </si>
-  <si>
-    <t>Amou 1</t>
-  </si>
-  <si>
-    <t>Amou 2</t>
-  </si>
-  <si>
-    <t>Amou 3</t>
-  </si>
-  <si>
-    <t>Wawa 1</t>
-  </si>
-  <si>
-    <t>Wawa 2</t>
-  </si>
-  <si>
-    <t>Wawa 3</t>
-  </si>
-  <si>
-    <t>Haho 1</t>
-  </si>
-  <si>
-    <t>Haho 2</t>
-  </si>
-  <si>
-    <t>Haho 3</t>
-  </si>
-  <si>
-    <t>Haho 4</t>
-  </si>
-  <si>
-    <t>Avé 1</t>
-  </si>
-  <si>
-    <t>Avé 2</t>
-  </si>
-  <si>
-    <t>Bas-Mono 1</t>
-  </si>
-  <si>
-    <t>Bas-Mono 2</t>
-  </si>
-  <si>
-    <t>Yoto 1</t>
-  </si>
-  <si>
-    <t>Yoto 2</t>
-  </si>
-  <si>
-    <t>Yoto 3</t>
-  </si>
-  <si>
-    <t>Vo 1</t>
-  </si>
-  <si>
-    <t>Vo 2</t>
-  </si>
-  <si>
-    <t>Vo 3</t>
-  </si>
-  <si>
-    <t>Vo 4</t>
-  </si>
-  <si>
-    <t>Lacs 1</t>
-  </si>
-  <si>
-    <t>Lacs 2</t>
-  </si>
-  <si>
-    <t>Lacs 3</t>
-  </si>
-  <si>
-    <t>Lacs 4</t>
-  </si>
-  <si>
-    <t>Zio 1</t>
-  </si>
-  <si>
-    <t>Zio 2</t>
-  </si>
-  <si>
-    <t>Zio 3</t>
-  </si>
-  <si>
-    <t>Zio 4</t>
-  </si>
-  <si>
-    <t>Agoé-Nyivé 1</t>
-  </si>
-  <si>
-    <t>Agoé-Nyivé 2</t>
-  </si>
-  <si>
-    <t>Agoé-Nyivé 3</t>
-  </si>
-  <si>
-    <t>Agoé-Nyivé 4</t>
-  </si>
-  <si>
-    <t>Agoé-Nyivé 5</t>
-  </si>
-  <si>
-    <t>Agoé-Nyivé 6</t>
-  </si>
-  <si>
-    <t>Golfe 1</t>
-  </si>
-  <si>
-    <t>Golfe 2</t>
-  </si>
-  <si>
-    <t>Golfe 3</t>
-  </si>
-  <si>
-    <t>Golfe 4</t>
-  </si>
-  <si>
-    <t>Golfe 5</t>
-  </si>
-  <si>
-    <t>Golfe 6</t>
-  </si>
-  <si>
-    <t>Golfe 7</t>
-  </si>
-  <si>
     <t>Préfecture de Kpendjal-Ouest</t>
   </si>
   <si>
@@ -523,6 +172,357 @@
   </si>
   <si>
     <t>Région Maritime</t>
+  </si>
+  <si>
+    <t>Cinkasse1</t>
+  </si>
+  <si>
+    <t>Cinkasse2</t>
+  </si>
+  <si>
+    <t>Tone1</t>
+  </si>
+  <si>
+    <t>Tone2</t>
+  </si>
+  <si>
+    <t>Tone3</t>
+  </si>
+  <si>
+    <t>Tone4</t>
+  </si>
+  <si>
+    <t>Kpendjal1</t>
+  </si>
+  <si>
+    <t>Kpendjal2</t>
+  </si>
+  <si>
+    <t>KpendjalOuest1</t>
+  </si>
+  <si>
+    <t>KpendjalOuest2</t>
+  </si>
+  <si>
+    <t>Oti1</t>
+  </si>
+  <si>
+    <t>Oti2</t>
+  </si>
+  <si>
+    <t>OtiSud1</t>
+  </si>
+  <si>
+    <t>OtiSud2</t>
+  </si>
+  <si>
+    <t>Tandjouare1</t>
+  </si>
+  <si>
+    <t>Tandjouare2</t>
+  </si>
+  <si>
+    <t>Golfe7</t>
+  </si>
+  <si>
+    <t>Golfe6</t>
+  </si>
+  <si>
+    <t>Golfe5</t>
+  </si>
+  <si>
+    <t>Golfe4</t>
+  </si>
+  <si>
+    <t>Golfe3</t>
+  </si>
+  <si>
+    <t>Golfe2</t>
+  </si>
+  <si>
+    <t>Golfe1</t>
+  </si>
+  <si>
+    <t>Zio4</t>
+  </si>
+  <si>
+    <t>Zio3</t>
+  </si>
+  <si>
+    <t>Zio2</t>
+  </si>
+  <si>
+    <t>Zio1</t>
+  </si>
+  <si>
+    <t>Lacs4</t>
+  </si>
+  <si>
+    <t>Lacs3</t>
+  </si>
+  <si>
+    <t>Lacs2</t>
+  </si>
+  <si>
+    <t>Lacs1</t>
+  </si>
+  <si>
+    <t>Vo4</t>
+  </si>
+  <si>
+    <t>Vo3</t>
+  </si>
+  <si>
+    <t>Vo2</t>
+  </si>
+  <si>
+    <t>Vo1</t>
+  </si>
+  <si>
+    <t>Yoto3</t>
+  </si>
+  <si>
+    <t>Yoto2</t>
+  </si>
+  <si>
+    <t>Yoto1</t>
+  </si>
+  <si>
+    <t>BasMono2</t>
+  </si>
+  <si>
+    <t>BasMono1</t>
+  </si>
+  <si>
+    <t>Ave2</t>
+  </si>
+  <si>
+    <t>Ave1</t>
+  </si>
+  <si>
+    <t>Haho4</t>
+  </si>
+  <si>
+    <t>Haho3</t>
+  </si>
+  <si>
+    <t>Haho2</t>
+  </si>
+  <si>
+    <t>Haho1</t>
+  </si>
+  <si>
+    <t>Wawa3</t>
+  </si>
+  <si>
+    <t>Wawa2</t>
+  </si>
+  <si>
+    <t>Wawa1</t>
+  </si>
+  <si>
+    <t>Amou3</t>
+  </si>
+  <si>
+    <t>Amou2</t>
+  </si>
+  <si>
+    <t>Amou1</t>
+  </si>
+  <si>
+    <t>Ogou4</t>
+  </si>
+  <si>
+    <t>Ogou3</t>
+  </si>
+  <si>
+    <t>Ogou2</t>
+  </si>
+  <si>
+    <t>Ogou1</t>
+  </si>
+  <si>
+    <t>Kloto3</t>
+  </si>
+  <si>
+    <t>Kloto2</t>
+  </si>
+  <si>
+    <t>Kloto1</t>
+  </si>
+  <si>
+    <t>Kpele2</t>
+  </si>
+  <si>
+    <t>Kpele1</t>
+  </si>
+  <si>
+    <t>Akebou2</t>
+  </si>
+  <si>
+    <t>Akebou1</t>
+  </si>
+  <si>
+    <t>Danyi2</t>
+  </si>
+  <si>
+    <t>Danyi1</t>
+  </si>
+  <si>
+    <t>Agou2</t>
+  </si>
+  <si>
+    <t>Keran1</t>
+  </si>
+  <si>
+    <t>Keran2</t>
+  </si>
+  <si>
+    <t>Keran3</t>
+  </si>
+  <si>
+    <t>Bassar1</t>
+  </si>
+  <si>
+    <t>Bassar2</t>
+  </si>
+  <si>
+    <t>Bassar3</t>
+  </si>
+  <si>
+    <t>Bassar4</t>
+  </si>
+  <si>
+    <t>Dankpen1</t>
+  </si>
+  <si>
+    <t>Dankpen2</t>
+  </si>
+  <si>
+    <t>Dankpen3</t>
+  </si>
+  <si>
+    <t>Kozah1</t>
+  </si>
+  <si>
+    <t>Kozah2</t>
+  </si>
+  <si>
+    <t>Kozah3</t>
+  </si>
+  <si>
+    <t>Kozah4</t>
+  </si>
+  <si>
+    <t>Binah1</t>
+  </si>
+  <si>
+    <t>Binah2</t>
+  </si>
+  <si>
+    <t>Doufelgou1</t>
+  </si>
+  <si>
+    <t>Doufelgou2</t>
+  </si>
+  <si>
+    <t>Doufelgou3</t>
+  </si>
+  <si>
+    <t>MoyenMono1</t>
+  </si>
+  <si>
+    <t>MoyenMono2</t>
+  </si>
+  <si>
+    <t>Agou1</t>
+  </si>
+  <si>
+    <t>EstMono1</t>
+  </si>
+  <si>
+    <t>EstMono2</t>
+  </si>
+  <si>
+    <t>EstMono3</t>
+  </si>
+  <si>
+    <t>Anie1</t>
+  </si>
+  <si>
+    <t>Anie2</t>
+  </si>
+  <si>
+    <t>Blitta1</t>
+  </si>
+  <si>
+    <t>Blitta2</t>
+  </si>
+  <si>
+    <t>Blitta3</t>
+  </si>
+  <si>
+    <t>Tchamba1</t>
+  </si>
+  <si>
+    <t>Tchamba2</t>
+  </si>
+  <si>
+    <t>Tchamba3</t>
+  </si>
+  <si>
+    <t>Mo1</t>
+  </si>
+  <si>
+    <t>Mo2</t>
+  </si>
+  <si>
+    <t>Sotouboua1</t>
+  </si>
+  <si>
+    <t>Sotouboua2</t>
+  </si>
+  <si>
+    <t>Sotouboua3</t>
+  </si>
+  <si>
+    <t>Tchaoudjo1</t>
+  </si>
+  <si>
+    <t>Tchaoudjo2</t>
+  </si>
+  <si>
+    <t>Tchaoudjo3</t>
+  </si>
+  <si>
+    <t>Tchaoudjo4</t>
+  </si>
+  <si>
+    <t>Assoli1</t>
+  </si>
+  <si>
+    <t>Assoli2</t>
+  </si>
+  <si>
+    <t>Assoli3</t>
+  </si>
+  <si>
+    <t>AgoeNyive 1</t>
+  </si>
+  <si>
+    <t>AgoeNyive 2</t>
+  </si>
+  <si>
+    <t>AgoeNyive 3</t>
+  </si>
+  <si>
+    <t>AgoeNyive 4</t>
+  </si>
+  <si>
+    <t>AgoeNyive 5</t>
+  </si>
+  <si>
+    <t>AgoeNyive 6</t>
   </si>
 </sst>
 </file>
@@ -821,9 +821,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -895,6 +892,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1211,32 +1211,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A42AF5-F019-47E1-9717-73C8E9C3CA5C}">
   <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="46" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" s="20" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>42</v>
@@ -1246,1643 +1246,1643 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>37</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="3">
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="8">
         <v>7</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="8">
         <v>8</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="26" t="s">
-        <v>161</v>
+      <c r="B11" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="4">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="26" t="s">
-        <v>161</v>
+      <c r="B12" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="3">
         <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="3">
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>162</v>
+      <c r="B15" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="5">
         <v>13</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>162</v>
+      <c r="B16" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="C16" s="5">
         <v>14</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C17" s="6">
         <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>16</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>17</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="7">
         <v>18</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="7">
         <v>19</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="8">
         <v>20</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="8">
         <v>21</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="8">
         <v>22</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="8">
         <v>23</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="9">
         <v>24</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="9">
         <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C28" s="9">
         <v>26</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="10">
         <v>27</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="10">
         <v>28</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="10">
         <v>29</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="10">
         <v>30</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="11">
         <v>31</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="12">
         <v>33</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="12">
         <v>34</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="12">
         <v>35</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C38" s="2">
         <v>36</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C39" s="2">
         <v>37</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="22" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="2">
         <v>38</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="13">
         <v>39</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="13">
         <v>40</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="44" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="13">
         <v>41</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="13">
         <v>42</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="5">
         <v>43</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="5">
         <v>44</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="5">
         <v>45</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C48" s="9">
         <v>46</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="44" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="9">
         <v>47</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C50" s="10">
         <v>48</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="10">
         <v>49</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="10">
         <v>50</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="H52" s="10"/>
     </row>
-    <row r="53" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
+    <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="14">
         <v>51</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="H53" s="10"/>
     </row>
-    <row r="54" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="s">
+    <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="14">
         <v>52</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="34" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="14">
         <v>53</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B56" s="36" t="s">
+      <c r="A56" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C56" s="15">
         <v>54</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="36" t="s">
+      <c r="A57" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="35" t="s">
         <v>13</v>
       </c>
       <c r="C57" s="15">
         <v>55</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B58" s="37" t="s">
+      <c r="A58" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="16">
         <v>56</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B59" s="37" t="s">
+      <c r="A59" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B59" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="16">
         <v>57</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="37" t="s">
+      <c r="A60" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" s="36" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="16">
         <v>58</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>101</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" s="31" t="s">
+      <c r="A61" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="10">
         <v>59</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="31" t="s">
+      <c r="A62" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C62" s="10">
         <v>60</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B63" s="33" t="s">
+      <c r="A63" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="12">
         <v>61</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="33" t="s">
+      <c r="A64" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C64" s="12">
         <v>62</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="38" t="s">
+      <c r="A65" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C65" s="18">
         <v>63</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="38" t="s">
+      <c r="A66" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C66" s="18">
         <v>64</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="39" t="s">
+      <c r="A67" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="19">
         <v>65</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="39" t="s">
+      <c r="A68" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C68" s="19">
         <v>66</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="33" t="s">
+      <c r="A69" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C69" s="12">
         <v>67</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="33" t="s">
+      <c r="A70" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="32" t="s">
         <v>21</v>
       </c>
       <c r="C70" s="12">
         <v>68</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="40" t="s">
+      <c r="A71" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="17">
         <v>69</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="40" t="s">
+      <c r="A72" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="17">
         <v>70</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="40" t="s">
+      <c r="A73" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="39" t="s">
         <v>17</v>
       </c>
       <c r="C73" s="17">
         <v>71</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="38" t="s">
+      <c r="A74" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="18">
         <v>72</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="38" t="s">
+      <c r="A75" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C75" s="18">
         <v>73</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="38" t="s">
+      <c r="A76" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C76" s="18">
         <v>74</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" s="38" t="s">
+      <c r="A77" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="18">
         <v>75</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" s="34" t="s">
+      <c r="A78" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C78" s="13">
         <v>76</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B79" s="34" t="s">
+      <c r="A79" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C79" s="13">
         <v>77</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" s="34" t="s">
+      <c r="A80" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C80" s="13">
         <v>78</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="40" t="s">
+      <c r="A81" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C81" s="17">
         <v>79</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="40" t="s">
+      <c r="A82" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C82" s="17">
         <v>80</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="40" t="s">
+      <c r="A83" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="39" t="s">
         <v>20</v>
       </c>
       <c r="C83" s="17">
         <v>81</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="33" t="s">
+      <c r="A84" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="12">
         <v>82</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="33" t="s">
+      <c r="A85" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="12">
         <v>83</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B86" s="33" t="s">
+      <c r="A86" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="12">
         <v>84</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>127</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="33" t="s">
+      <c r="A87" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C87" s="12">
         <v>85</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="36" t="s">
+      <c r="A88" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C88" s="15">
         <v>86</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B89" s="36" t="s">
+      <c r="A89" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="35" t="s">
         <v>1</v>
       </c>
       <c r="C89" s="15">
         <v>87</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="26" t="s">
+      <c r="A90" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="4">
         <v>88</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>131</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="26" t="s">
+      <c r="A91" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="4">
         <v>89</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B92" s="24" t="s">
+      <c r="A92" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C92" s="3">
         <v>90</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B93" s="24" t="s">
+      <c r="A93" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="3">
         <v>91</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B94" s="24" t="s">
+      <c r="A94" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="3">
         <v>92</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>135</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="33" t="s">
+      <c r="A95" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="12">
         <v>93</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B96" s="33" t="s">
+      <c r="A96" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="12">
         <v>94</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B97" s="33" t="s">
+      <c r="A97" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="12">
         <v>95</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B98" s="33" t="s">
+      <c r="A98" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="12">
         <v>96</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B99" s="27" t="s">
+      <c r="A99" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="5">
         <v>97</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B100" s="27" t="s">
+      <c r="A100" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C100" s="5">
         <v>98</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B101" s="27" t="s">
+      <c r="A101" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C101" s="5">
         <v>99</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B102" s="27" t="s">
+      <c r="A102" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C102" s="5">
         <v>100</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B103" s="24" t="s">
+      <c r="A103" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="3">
         <v>101</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B104" s="24" t="s">
+      <c r="A104" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C104" s="3">
         <v>102</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" s="24" t="s">
+      <c r="A105" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C105" s="3">
         <v>103</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B106" s="24" t="s">
+      <c r="A106" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="3">
         <v>104</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B107" s="25" t="s">
+      <c r="A107" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="8">
         <v>105</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B108" s="25" t="s">
+      <c r="A108" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="8">
         <v>106</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B109" s="25" t="s">
+      <c r="A109" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="8">
         <v>107</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B110" s="25" t="s">
+      <c r="A110" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="8">
         <v>108</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B111" s="25" t="s">
+      <c r="A111" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="8">
         <v>109</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B112" s="25" t="s">
+      <c r="A112" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="8">
         <v>110</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B113" s="40" t="s">
+      <c r="A113" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C113" s="17">
         <v>111</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B114" s="40" t="s">
+      <c r="A114" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C114" s="17">
         <v>112</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B115" s="40" t="s">
+      <c r="A115" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C115" s="17">
         <v>113</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B116" s="40" t="s">
+      <c r="A116" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C116" s="17">
         <v>114</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>157</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B117" s="40" t="s">
+      <c r="A117" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="17">
         <v>115</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B118" s="40" t="s">
+      <c r="A118" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C118" s="17">
         <v>116</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>159</v>
+        <v>66</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="B119" s="40" t="s">
+      <c r="A119" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C119" s="17">
         <v>117</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
